--- a/Table/Table_xls/s商店商城商会表/sMT3商会二级菜单配置.xlsx
+++ b/Table/Table_xls/s商店商城商会表/sMT3商会二级菜单配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -243,6 +243,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -252,149 +388,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,19 +409,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,158 +599,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -603,10 +609,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -642,37 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,8 +716,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,152 +726,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,6 +880,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1255,10 +1279,10 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1296296296296" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
@@ -1360,7 +1384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1391,8 +1415,11 @@
       <c r="J2" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1423,8 +1450,11 @@
       <c r="J3" s="1">
         <v>1016</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1454,6 +1484,9 @@
       </c>
       <c r="J4" s="1">
         <v>1025</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1969,7 +2002,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1986,7 +2019,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
